--- a/CategoryTemplateVerification14-7-22.xlsx
+++ b/CategoryTemplateVerification14-7-22.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44839CF2-1839-48E0-9AAA-95FFA9269147}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="841"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656" tabRatio="841" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CategorizingFeedback" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="227">
   <si>
     <t>Desktop iFrame size</t>
   </si>
@@ -727,7 +728,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -930,7 +931,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -968,7 +975,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1006,7 +1019,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1044,7 +1063,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1082,7 +1107,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1120,7 +1151,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1158,7 +1195,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1196,7 +1239,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1234,7 +1283,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1272,7 +1327,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1310,7 +1371,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1348,7 +1415,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1386,7 +1459,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1424,7 +1503,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1462,7 +1547,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1500,7 +1591,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1538,7 +1635,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1576,7 +1679,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1614,7 +1723,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1652,7 +1767,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28"/>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1690,7 +1811,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1728,7 +1855,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 30"/>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1766,7 +1899,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 32"/>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1804,7 +1943,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 33"/>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1842,7 +1987,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Picture 34"/>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1880,7 +2031,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture 35"/>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1918,7 +2075,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Picture 36"/>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1956,7 +2119,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture 37"/>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1994,7 +2163,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Picture 38"/>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2032,7 +2207,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Picture 39"/>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2070,7 +2251,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Picture 40"/>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2108,7 +2295,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Picture 41"/>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2146,7 +2339,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Picture 42"/>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2184,7 +2383,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Picture 43"/>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2222,7 +2427,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Picture 44"/>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2260,7 +2471,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Picture 45"/>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2298,7 +2515,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Picture 46"/>
+        <xdr:cNvPr id="47" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2336,7 +2559,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Picture 47"/>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2374,7 +2603,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Picture 48"/>
+        <xdr:cNvPr id="49" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2412,7 +2647,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Picture 49"/>
+        <xdr:cNvPr id="50" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2450,7 +2691,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Picture 50"/>
+        <xdr:cNvPr id="51" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2488,7 +2735,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Picture 51"/>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2526,7 +2779,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Picture 52"/>
+        <xdr:cNvPr id="53" name="Picture 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2564,7 +2823,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Picture 53"/>
+        <xdr:cNvPr id="54" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2602,7 +2867,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Picture 54"/>
+        <xdr:cNvPr id="55" name="Picture 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2640,7 +2911,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Picture 55"/>
+        <xdr:cNvPr id="56" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2678,7 +2955,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Picture 56"/>
+        <xdr:cNvPr id="57" name="Picture 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2716,7 +2999,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Picture 57"/>
+        <xdr:cNvPr id="58" name="Picture 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2754,7 +3043,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Picture 58"/>
+        <xdr:cNvPr id="59" name="Picture 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2792,7 +3087,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Picture 59"/>
+        <xdr:cNvPr id="60" name="Picture 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2830,7 +3131,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Picture 60"/>
+        <xdr:cNvPr id="61" name="Picture 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2868,7 +3175,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Picture 61"/>
+        <xdr:cNvPr id="62" name="Picture 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2906,7 +3219,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Picture 63"/>
+        <xdr:cNvPr id="64" name="Picture 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2944,7 +3263,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Picture 64"/>
+        <xdr:cNvPr id="65" name="Picture 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2982,7 +3307,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Picture 65"/>
+        <xdr:cNvPr id="66" name="Picture 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3020,7 +3351,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3058,7 +3395,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3089,14 +3432,20 @@
       <xdr:rowOff>119743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>67828</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>677428</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>2490667</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3134,7 +3483,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3165,14 +3520,20 @@
       <xdr:rowOff>664028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>177659</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>787259</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>2035457</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3210,7 +3571,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3248,7 +3615,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3286,7 +3659,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3324,7 +3703,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 31"/>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3362,7 +3747,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Picture 66"/>
+        <xdr:cNvPr id="67" name="Picture 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3650,30 +4041,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L23" sqref="L23"/>
+      <selection pane="topRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.140625" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.109375" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" style="26" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>209</v>
       </c>
@@ -3710,9 +4103,11 @@
       <c r="L1" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="M1" s="16"/>
-    </row>
-    <row r="2" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+      <c r="M1" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>208</v>
       </c>
@@ -3737,7 +4132,7 @@
       <c r="L2" s="25"/>
       <c r="M2" s="16"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>208</v>
       </c>
@@ -3762,7 +4157,7 @@
       <c r="L3" s="25"/>
       <c r="M3" s="16"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>208</v>
       </c>
@@ -3787,7 +4182,7 @@
       <c r="L4" s="25"/>
       <c r="M4" s="16"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>208</v>
       </c>
@@ -3812,7 +4207,7 @@
       <c r="L5" s="25"/>
       <c r="M5" s="16"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -3837,7 +4232,7 @@
       <c r="L6" s="25"/>
       <c r="M6" s="16"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>208</v>
       </c>
@@ -3862,7 +4257,7 @@
       <c r="L7" s="25"/>
       <c r="M7" s="16"/>
     </row>
-    <row r="8" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>208</v>
       </c>
@@ -3887,7 +4282,7 @@
       <c r="L8" s="25"/>
       <c r="M8" s="16"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>208</v>
       </c>
@@ -3904,7 +4299,7 @@
       <c r="L9" s="25"/>
       <c r="M9" s="16"/>
     </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>208</v>
       </c>
@@ -3937,7 +4332,7 @@
       </c>
       <c r="M10" s="16"/>
     </row>
-    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>208</v>
       </c>
@@ -3970,7 +4365,7 @@
       </c>
       <c r="M11" s="16"/>
     </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>208</v>
       </c>
@@ -4003,7 +4398,7 @@
       </c>
       <c r="M12" s="16"/>
     </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -4036,7 +4431,7 @@
       </c>
       <c r="M13" s="16"/>
     </row>
-    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -4069,7 +4464,7 @@
       </c>
       <c r="M14" s="16"/>
     </row>
-    <row r="15" spans="1:13" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="135" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -4102,7 +4497,7 @@
       </c>
       <c r="M15" s="16"/>
     </row>
-    <row r="16" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>208</v>
       </c>
@@ -4135,7 +4530,7 @@
       </c>
       <c r="M16" s="16"/>
     </row>
-    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>208</v>
       </c>
@@ -4168,7 +4563,7 @@
       </c>
       <c r="M17" s="16"/>
     </row>
-    <row r="18" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>208</v>
       </c>
@@ -4201,7 +4596,7 @@
       </c>
       <c r="M18" s="16"/>
     </row>
-    <row r="19" spans="1:13" ht="159.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="159.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>208</v>
       </c>
@@ -4234,7 +4629,7 @@
       </c>
       <c r="M19" s="16"/>
     </row>
-    <row r="20" spans="1:13" ht="119.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>208</v>
       </c>
@@ -4267,7 +4662,7 @@
       </c>
       <c r="M20" s="16"/>
     </row>
-    <row r="21" spans="1:13" ht="167.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="167.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>208</v>
       </c>
@@ -4300,7 +4695,7 @@
       </c>
       <c r="M21" s="16"/>
     </row>
-    <row r="22" spans="1:13" ht="77.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>208</v>
       </c>
@@ -4333,7 +4728,7 @@
       </c>
       <c r="M22" s="16"/>
     </row>
-    <row r="23" spans="1:13" ht="121.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>208</v>
       </c>
@@ -4366,7 +4761,7 @@
       </c>
       <c r="M23" s="16"/>
     </row>
-    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>208</v>
       </c>
@@ -4399,7 +4794,7 @@
       </c>
       <c r="M24" s="16"/>
     </row>
-    <row r="25" spans="1:13" ht="198.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="198.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>208</v>
       </c>
@@ -4432,7 +4827,7 @@
       </c>
       <c r="M25" s="16"/>
     </row>
-    <row r="26" spans="1:13" ht="149.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="149.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>208</v>
       </c>
@@ -4465,7 +4860,7 @@
       </c>
       <c r="M26" s="16"/>
     </row>
-    <row r="27" spans="1:13" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>208</v>
       </c>
@@ -4498,7 +4893,7 @@
       </c>
       <c r="M27" s="16"/>
     </row>
-    <row r="28" spans="1:13" ht="185.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="185.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>208</v>
       </c>
@@ -4531,7 +4926,7 @@
       </c>
       <c r="M28" s="16"/>
     </row>
-    <row r="29" spans="1:13" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="177" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>208</v>
       </c>
@@ -4564,7 +4959,7 @@
       </c>
       <c r="M29" s="16"/>
     </row>
-    <row r="30" spans="1:13" ht="176.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>208</v>
       </c>
@@ -4595,7 +4990,7 @@
       <c r="L30" s="25"/>
       <c r="M30" s="16"/>
     </row>
-    <row r="31" spans="1:13" ht="103.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>208</v>
       </c>
@@ -4628,7 +5023,7 @@
       </c>
       <c r="M31" s="16"/>
     </row>
-    <row r="32" spans="1:13" ht="214.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="214.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>208</v>
       </c>
@@ -4661,7 +5056,7 @@
       </c>
       <c r="M32" s="16"/>
     </row>
-    <row r="33" spans="1:13" ht="109.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="109.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -4692,7 +5087,7 @@
       <c r="L33" s="25"/>
       <c r="M33" s="16"/>
     </row>
-    <row r="34" spans="1:13" ht="133.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>208</v>
       </c>
@@ -4723,7 +5118,7 @@
       <c r="L34" s="25"/>
       <c r="M34" s="16"/>
     </row>
-    <row r="35" spans="1:13" ht="133.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="133.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>208</v>
       </c>
@@ -4756,7 +5151,7 @@
       </c>
       <c r="M35" s="16"/>
     </row>
-    <row r="36" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>208</v>
       </c>
@@ -4789,7 +5184,7 @@
       </c>
       <c r="M36" s="16"/>
     </row>
-    <row r="37" spans="1:13" ht="138.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="138.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>208</v>
       </c>
@@ -4820,7 +5215,7 @@
       <c r="L37" s="25"/>
       <c r="M37" s="16"/>
     </row>
-    <row r="38" spans="1:13" ht="109.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="109.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>208</v>
       </c>
@@ -4853,7 +5248,7 @@
       </c>
       <c r="M38" s="16"/>
     </row>
-    <row r="39" spans="1:13" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="174" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>208</v>
       </c>
@@ -4884,7 +5279,7 @@
       <c r="L39" s="25"/>
       <c r="M39" s="16"/>
     </row>
-    <row r="40" spans="1:13" ht="177.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="177.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>208</v>
       </c>
@@ -4915,7 +5310,7 @@
       <c r="L40" s="25"/>
       <c r="M40" s="16"/>
     </row>
-    <row r="41" spans="1:13" ht="220.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="220.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>208</v>
       </c>
@@ -4948,7 +5343,7 @@
       </c>
       <c r="M41" s="16"/>
     </row>
-    <row r="42" spans="1:13" ht="281.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="281.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>208</v>
       </c>
@@ -4978,7 +5373,7 @@
       </c>
       <c r="L42" s="25"/>
     </row>
-    <row r="43" spans="1:13" ht="222.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="222.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>208</v>
       </c>
@@ -5008,7 +5403,7 @@
       </c>
       <c r="L43" s="25"/>
     </row>
-    <row r="44" spans="1:13" ht="273" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="273" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>208</v>
       </c>
@@ -5038,7 +5433,7 @@
       </c>
       <c r="L44" s="25"/>
     </row>
-    <row r="45" spans="1:13" ht="238.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="238.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>208</v>
       </c>
@@ -5068,7 +5463,7 @@
       </c>
       <c r="L45" s="25"/>
     </row>
-    <row r="46" spans="1:13" ht="212.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="212.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>208</v>
       </c>
@@ -5098,7 +5493,7 @@
       </c>
       <c r="L46" s="25"/>
     </row>
-    <row r="47" spans="1:13" ht="184.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="184.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>208</v>
       </c>
@@ -5128,7 +5523,7 @@
       </c>
       <c r="L47" s="25"/>
     </row>
-    <row r="48" spans="1:13" ht="186" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="186" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>208</v>
       </c>
@@ -5158,7 +5553,7 @@
       </c>
       <c r="L48" s="25"/>
     </row>
-    <row r="49" spans="1:12" ht="216.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="216.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>208</v>
       </c>
@@ -5188,7 +5583,7 @@
       </c>
       <c r="L49" s="25"/>
     </row>
-    <row r="50" spans="1:12" ht="239.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="239.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>208</v>
       </c>
@@ -5218,7 +5613,7 @@
       </c>
       <c r="L50" s="25"/>
     </row>
-    <row r="51" spans="1:12" ht="198.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="198.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>208</v>
       </c>
@@ -5248,7 +5643,7 @@
       </c>
       <c r="L51" s="25"/>
     </row>
-    <row r="52" spans="1:12" ht="247.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="247.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>208</v>
       </c>
@@ -5278,7 +5673,7 @@
       </c>
       <c r="L52" s="25"/>
     </row>
-    <row r="53" spans="1:12" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="177" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>208</v>
       </c>
@@ -5308,7 +5703,7 @@
       </c>
       <c r="L53" s="25"/>
     </row>
-    <row r="54" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>208</v>
       </c>
@@ -5338,7 +5733,7 @@
       </c>
       <c r="L54" s="25"/>
     </row>
-    <row r="55" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>208</v>
       </c>
@@ -5368,7 +5763,7 @@
       </c>
       <c r="L55" s="25"/>
     </row>
-    <row r="56" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>208</v>
       </c>
@@ -5398,7 +5793,7 @@
       </c>
       <c r="L56" s="25"/>
     </row>
-    <row r="57" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>208</v>
       </c>
@@ -5420,7 +5815,7 @@
       </c>
       <c r="L57" s="25"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>208</v>
       </c>
@@ -5436,7 +5831,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="25"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>208</v>
       </c>
@@ -5454,7 +5849,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="25"/>
     </row>
-    <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>208</v>
       </c>
@@ -5486,7 +5881,7 @@
       </c>
       <c r="L60" s="25"/>
     </row>
-    <row r="61" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>208</v>
       </c>
@@ -5518,7 +5913,7 @@
       </c>
       <c r="L61" s="25"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>208</v>
       </c>
@@ -5550,7 +5945,7 @@
       </c>
       <c r="L62" s="25"/>
     </row>
-    <row r="63" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>208</v>
       </c>
@@ -5582,7 +5977,7 @@
       </c>
       <c r="L63" s="25"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>208</v>
       </c>
@@ -5614,7 +6009,7 @@
       </c>
       <c r="L64" s="25"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>208</v>
       </c>
@@ -5646,7 +6041,7 @@
       </c>
       <c r="L65" s="25"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>208</v>
       </c>
@@ -5678,7 +6073,7 @@
       </c>
       <c r="L66" s="25"/>
     </row>
-    <row r="67" spans="1:12" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>208</v>
       </c>
@@ -5710,7 +6105,7 @@
       </c>
       <c r="L67" s="25"/>
     </row>
-    <row r="68" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>208</v>
       </c>
@@ -5742,7 +6137,7 @@
       </c>
       <c r="L68" s="25"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>208</v>
       </c>
@@ -5774,7 +6169,7 @@
       </c>
       <c r="L69" s="25"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>208</v>
       </c>
@@ -5806,7 +6201,7 @@
       </c>
       <c r="L70" s="25"/>
     </row>
-    <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>208</v>
       </c>
@@ -5838,7 +6233,7 @@
       </c>
       <c r="L71" s="25"/>
     </row>
-    <row r="72" spans="1:12" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>208</v>
       </c>
@@ -5870,7 +6265,7 @@
       </c>
       <c r="L72" s="25"/>
     </row>
-    <row r="73" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>208</v>
       </c>
@@ -5902,7 +6297,7 @@
       </c>
       <c r="L73" s="25"/>
     </row>
-    <row r="74" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>208</v>
       </c>
@@ -5934,7 +6329,7 @@
       </c>
       <c r="L74" s="25"/>
     </row>
-    <row r="75" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>208</v>
       </c>
@@ -5964,7 +6359,7 @@
       </c>
       <c r="L75" s="25"/>
     </row>
-    <row r="76" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>208</v>
       </c>
@@ -5994,7 +6389,7 @@
       </c>
       <c r="L76" s="25"/>
     </row>
-    <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>208</v>
       </c>
@@ -6024,7 +6419,7 @@
       </c>
       <c r="L77" s="25"/>
     </row>
-    <row r="78" spans="1:12" ht="142.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="142.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>208</v>
       </c>
@@ -6054,7 +6449,7 @@
       </c>
       <c r="L78" s="25"/>
     </row>
-    <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>208</v>
       </c>
@@ -6084,7 +6479,7 @@
       </c>
       <c r="L79" s="25"/>
     </row>
-    <row r="80" spans="1:12" ht="248.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="248.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>208</v>
       </c>
@@ -6116,7 +6511,7 @@
       </c>
       <c r="L80" s="25"/>
     </row>
-    <row r="81" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>208</v>
       </c>
@@ -6148,7 +6543,7 @@
       </c>
       <c r="L81" s="25"/>
     </row>
-    <row r="82" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>208</v>
       </c>
@@ -6180,7 +6575,7 @@
       </c>
       <c r="L82" s="25"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>208</v>
       </c>
@@ -6210,7 +6605,7 @@
       <c r="K83" s="1"/>
       <c r="L83" s="25"/>
     </row>
-    <row r="84" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>208</v>
       </c>
@@ -6242,7 +6637,7 @@
       </c>
       <c r="L84" s="25"/>
     </row>
-    <row r="85" spans="1:12" ht="230.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="230.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>208</v>
       </c>
@@ -6274,7 +6669,7 @@
       </c>
       <c r="L85" s="25"/>
     </row>
-    <row r="86" spans="1:12" ht="128.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>208</v>
       </c>
@@ -6306,7 +6701,7 @@
       </c>
       <c r="L86" s="25"/>
     </row>
-    <row r="87" spans="1:12" ht="151.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>208</v>
       </c>
@@ -6336,7 +6731,7 @@
       </c>
       <c r="L87" s="25"/>
     </row>
-    <row r="88" spans="1:12" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="177" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>208</v>
       </c>
@@ -6366,7 +6761,7 @@
       </c>
       <c r="L88" s="25"/>
     </row>
-    <row r="89" spans="1:12" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="198" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>208</v>
       </c>
@@ -6398,7 +6793,7 @@
       </c>
       <c r="L89" s="25"/>
     </row>
-    <row r="90" spans="1:12" ht="308.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="308.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>208</v>
       </c>
@@ -6430,7 +6825,7 @@
       </c>
       <c r="L90" s="25"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -6451,7 +6846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6459,25 +6854,25 @@
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="19.5703125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="26.28515625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="7"/>
-    <col min="18" max="18" width="14.28515625" style="7" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="7"/>
+    <col min="2" max="2" width="9.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="19.5546875" style="7" customWidth="1"/>
+    <col min="16" max="16" width="26.33203125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="7"/>
+    <col min="18" max="18" width="14.33203125" style="7" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="5" t="s">
         <v>4</v>
@@ -6529,7 +6924,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -6555,7 +6950,7 @@
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
     </row>
-    <row r="3" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -6595,7 +6990,7 @@
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
     </row>
-    <row r="4" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -6635,7 +7030,7 @@
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
     </row>
-    <row r="5" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
@@ -6675,7 +7070,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="1:18" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -6717,7 +7112,7 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
     </row>
-    <row r="7" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>66</v>
       </c>
@@ -6757,7 +7152,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="1:18" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>68</v>
       </c>
@@ -6793,7 +7188,7 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="1:18" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>56</v>
       </c>
@@ -6839,7 +7234,7 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="1:18" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>58</v>
       </c>
@@ -6885,7 +7280,7 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
     </row>
-    <row r="11" spans="1:18" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>55</v>
       </c>
@@ -6931,7 +7326,7 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
     </row>
-    <row r="12" spans="1:18" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>63</v>
       </c>
@@ -6977,7 +7372,7 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
     </row>
-    <row r="13" spans="1:18" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>64</v>
       </c>
@@ -7023,7 +7418,7 @@
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
     </row>
-    <row r="14" spans="1:18" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>65</v>
       </c>
@@ -7069,7 +7464,7 @@
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
     </row>
-    <row r="15" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>1</v>
       </c>
@@ -7095,7 +7490,7 @@
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
     </row>
-    <row r="16" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>9</v>
       </c>
@@ -7135,7 +7530,7 @@
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
     </row>
-    <row r="17" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>11</v>
       </c>
@@ -7175,7 +7570,7 @@
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
     </row>
-    <row r="18" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>13</v>
       </c>
@@ -7215,7 +7610,7 @@
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
     </row>
-    <row r="19" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>15</v>
       </c>
@@ -7255,7 +7650,7 @@
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
     </row>
-    <row r="20" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>66</v>
       </c>
@@ -7295,7 +7690,7 @@
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
     </row>
-    <row r="21" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>68</v>
       </c>
@@ -7335,7 +7730,7 @@
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
     </row>
-    <row r="22" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -7361,7 +7756,7 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
     </row>
-    <row r="23" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>9</v>
       </c>
@@ -7401,7 +7796,7 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
     </row>
-    <row r="24" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>11</v>
       </c>
@@ -7441,7 +7836,7 @@
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
     </row>
-    <row r="25" spans="1:18" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>13</v>
       </c>
@@ -7481,7 +7876,7 @@
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
     </row>
-    <row r="26" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>15</v>
       </c>
@@ -7521,7 +7916,7 @@
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>66</v>
       </c>
@@ -7561,7 +7956,7 @@
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
     </row>
-    <row r="28" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>68</v>
       </c>
@@ -7597,7 +7992,7 @@
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
     </row>
-    <row r="29" spans="1:18" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>3</v>
       </c>
@@ -7622,7 +8017,7 @@
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
     </row>
-    <row r="30" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>9</v>
       </c>
@@ -7662,7 +8057,7 @@
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
     </row>
-    <row r="31" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>11</v>
       </c>
@@ -7702,7 +8097,7 @@
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
     </row>
-    <row r="32" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>13</v>
       </c>
@@ -7742,7 +8137,7 @@
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
     </row>
-    <row r="33" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>15</v>
       </c>
@@ -7782,7 +8177,7 @@
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
     </row>
-    <row r="34" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>18</v>
       </c>
@@ -7822,7 +8217,7 @@
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
     </row>
-    <row r="35" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>68</v>
       </c>
@@ -7862,21 +8257,21 @@
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
     </row>
-    <row r="36" spans="1:18" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7884,26 +8279,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>176</v>
@@ -7913,61 +8308,61 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
